--- a/設計書/内部設計書/画面一覧.xlsx
+++ b/設計書/内部設計書/画面一覧.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29328"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aokib\Desktop\Files\Grobe\設計書\内部設計書\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\青木智之\Desktop\aoki\files\Grobe\resat_sql\設計書\内部設計書\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7FDCF532-B877-491D-8220-B1943AF8717C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B55BD61-B56B-4A40-87B1-39DD1BC8388F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1740" yWindow="1740" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="49">
   <si>
     <t>画面名</t>
     <rPh sb="0" eb="2">
@@ -264,6 +264,73 @@
     <rPh sb="7" eb="9">
       <t>ガメン</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Pg1201</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>公演新規作成画面</t>
+    <rPh sb="6" eb="8">
+      <t>ガメン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>団体公演一覧</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>団体基本情報</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>団体メンバー</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Pg1202</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Pg1203</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Pg1204</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Pg3101</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Pg3102</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Pg3103</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Pg3104</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>公演一覧・参加</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>団体一覧・参加</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ユーザー基本情報</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>団体の新規作成</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -592,10 +659,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B2:D17"/>
+  <dimension ref="B2:D25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
@@ -721,18 +788,82 @@
     </row>
     <row r="16" spans="2:4">
       <c r="B16" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="C16" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
     </row>
     <row r="17" spans="2:3">
       <c r="B17" t="s">
+        <v>38</v>
+      </c>
+      <c r="C17" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="18" spans="2:3">
+      <c r="B18" t="s">
+        <v>39</v>
+      </c>
+      <c r="C18" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="19" spans="2:3">
+      <c r="B19" t="s">
+        <v>40</v>
+      </c>
+      <c r="C19" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="20" spans="2:3">
+      <c r="B20" t="s">
+        <v>29</v>
+      </c>
+      <c r="C20" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="21" spans="2:3">
+      <c r="B21" t="s">
         <v>30</v>
       </c>
-      <c r="C17" t="s">
+      <c r="C21" t="s">
         <v>32</v>
+      </c>
+    </row>
+    <row r="22" spans="2:3">
+      <c r="B22" t="s">
+        <v>41</v>
+      </c>
+      <c r="C22" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="23" spans="2:3">
+      <c r="B23" t="s">
+        <v>42</v>
+      </c>
+      <c r="C23" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="24" spans="2:3">
+      <c r="B24" t="s">
+        <v>43</v>
+      </c>
+      <c r="C24" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="25" spans="2:3">
+      <c r="B25" t="s">
+        <v>44</v>
+      </c>
+      <c r="C25" t="s">
+        <v>48</v>
       </c>
     </row>
   </sheetData>

--- a/設計書/内部設計書/画面一覧.xlsx
+++ b/設計書/内部設計書/画面一覧.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\青木智之\Desktop\aoki\files\Grobe\resat_sql\設計書\内部設計書\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B55BD61-B56B-4A40-87B1-39DD1BC8388F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{286366A9-CDDE-42BF-8099-3095382059CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="管理画面" sheetId="1" r:id="rId1"/>
+    <sheet name="予約者画面" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="51">
   <si>
     <t>画面名</t>
     <rPh sb="0" eb="2">
@@ -33,13 +34,6 @@
     </rPh>
     <rPh sb="2" eb="3">
       <t>メイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>論理名</t>
-    <rPh sb="0" eb="3">
-      <t>ロンリメイ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -331,6 +325,30 @@
   </si>
   <si>
     <t>団体の新規作成</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>AIによるフロント作成確認</t>
+    <rPh sb="9" eb="11">
+      <t>サクセイ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>カクニン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>作成状況</t>
+    <rPh sb="0" eb="2">
+      <t>サクセイ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ジョウキョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>PgC0001</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -659,10 +677,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B2:D25"/>
+  <dimension ref="B2:E25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B3" sqref="B3:F25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
@@ -671,199 +689,256 @@
     <col min="3" max="3" width="26.09765625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
+    <row r="2" spans="2:5">
+      <c r="B2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="3" spans="2:5">
+      <c r="B3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="2:5">
+      <c r="B4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="2:5">
+      <c r="B5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="2:5">
+      <c r="B6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="2:5">
+      <c r="B7" t="s">
+        <v>8</v>
+      </c>
+      <c r="C7" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="8" spans="2:5">
+      <c r="B8" t="s">
+        <v>12</v>
+      </c>
+      <c r="C8" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="9" spans="2:5">
+      <c r="B9" t="s">
+        <v>14</v>
+      </c>
+      <c r="C9" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="10" spans="2:5">
+      <c r="B10" t="s">
+        <v>16</v>
+      </c>
+      <c r="C10" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="11" spans="2:5">
+      <c r="B11" t="s">
+        <v>18</v>
+      </c>
+      <c r="C11" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="12" spans="2:5">
+      <c r="B12" t="s">
+        <v>20</v>
+      </c>
+      <c r="C12" t="s">
+        <v>21</v>
+      </c>
+      <c r="E12" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="13" spans="2:5">
+      <c r="B13" t="s">
+        <v>22</v>
+      </c>
+      <c r="C13" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="14" spans="2:5">
+      <c r="B14" t="s">
+        <v>24</v>
+      </c>
+      <c r="C14" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="15" spans="2:5">
+      <c r="B15" t="s">
+        <v>26</v>
+      </c>
+      <c r="C15" t="s">
+        <v>27</v>
+      </c>
+      <c r="E15" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="16" spans="2:5">
+      <c r="B16" t="s">
+        <v>32</v>
+      </c>
+      <c r="C16" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="17" spans="2:5">
+      <c r="B17" t="s">
+        <v>37</v>
+      </c>
+      <c r="C17" t="s">
+        <v>34</v>
+      </c>
+      <c r="E17" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="18" spans="2:5">
+      <c r="B18" t="s">
+        <v>38</v>
+      </c>
+      <c r="C18" t="s">
+        <v>35</v>
+      </c>
+      <c r="E18" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="19" spans="2:5">
+      <c r="B19" t="s">
+        <v>39</v>
+      </c>
+      <c r="C19" t="s">
+        <v>36</v>
+      </c>
+      <c r="E19" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="20" spans="2:5">
+      <c r="B20" t="s">
+        <v>28</v>
+      </c>
+      <c r="C20" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="21" spans="2:5">
+      <c r="B21" t="s">
+        <v>29</v>
+      </c>
+      <c r="C21" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="22" spans="2:5">
+      <c r="B22" t="s">
+        <v>40</v>
+      </c>
+      <c r="C22" t="s">
+        <v>44</v>
+      </c>
+      <c r="E22" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="23" spans="2:5">
+      <c r="B23" t="s">
+        <v>41</v>
+      </c>
+      <c r="C23" t="s">
+        <v>45</v>
+      </c>
+      <c r="E23" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="24" spans="2:5">
+      <c r="B24" t="s">
+        <v>42</v>
+      </c>
+      <c r="C24" t="s">
+        <v>46</v>
+      </c>
+      <c r="E24" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="25" spans="2:5">
+      <c r="B25" t="s">
+        <v>43</v>
+      </c>
+      <c r="C25" t="s">
+        <v>47</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B79F3A80-02B6-46E1-A51A-F8D857E05A44}">
+  <dimension ref="B2:D3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18"/>
+  <cols>
+    <col min="1" max="1" width="3.69921875" customWidth="1"/>
+  </cols>
+  <sheetData>
     <row r="2" spans="2:4">
       <c r="B2" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>0</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>1</v>
+        <v>49</v>
       </c>
     </row>
     <row r="3" spans="2:4">
       <c r="B3" t="s">
-        <v>3</v>
-      </c>
-      <c r="C3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="4" spans="2:4">
-      <c r="B4" t="s">
-        <v>5</v>
-      </c>
-      <c r="C4" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="5" spans="2:4">
-      <c r="B5" t="s">
-        <v>8</v>
-      </c>
-      <c r="C5" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="6" spans="2:4">
-      <c r="B6" t="s">
-        <v>10</v>
-      </c>
-      <c r="C6" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="7" spans="2:4">
-      <c r="B7" t="s">
-        <v>9</v>
-      </c>
-      <c r="C7" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="8" spans="2:4">
-      <c r="B8" t="s">
-        <v>13</v>
-      </c>
-      <c r="C8" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="9" spans="2:4">
-      <c r="B9" t="s">
-        <v>15</v>
-      </c>
-      <c r="C9" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="10" spans="2:4">
-      <c r="B10" t="s">
-        <v>17</v>
-      </c>
-      <c r="C10" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="11" spans="2:4">
-      <c r="B11" t="s">
-        <v>19</v>
-      </c>
-      <c r="C11" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="12" spans="2:4">
-      <c r="B12" t="s">
-        <v>21</v>
-      </c>
-      <c r="C12" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="13" spans="2:4">
-      <c r="B13" t="s">
-        <v>23</v>
-      </c>
-      <c r="C13" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="14" spans="2:4">
-      <c r="B14" t="s">
-        <v>25</v>
-      </c>
-      <c r="C14" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="15" spans="2:4">
-      <c r="B15" t="s">
-        <v>27</v>
-      </c>
-      <c r="C15" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="16" spans="2:4">
-      <c r="B16" t="s">
-        <v>33</v>
-      </c>
-      <c r="C16" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="17" spans="2:3">
-      <c r="B17" t="s">
-        <v>38</v>
-      </c>
-      <c r="C17" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="18" spans="2:3">
-      <c r="B18" t="s">
-        <v>39</v>
-      </c>
-      <c r="C18" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="19" spans="2:3">
-      <c r="B19" t="s">
-        <v>40</v>
-      </c>
-      <c r="C19" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="20" spans="2:3">
-      <c r="B20" t="s">
-        <v>29</v>
-      </c>
-      <c r="C20" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="21" spans="2:3">
-      <c r="B21" t="s">
-        <v>30</v>
-      </c>
-      <c r="C21" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="22" spans="2:3">
-      <c r="B22" t="s">
-        <v>41</v>
-      </c>
-      <c r="C22" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="23" spans="2:3">
-      <c r="B23" t="s">
-        <v>42</v>
-      </c>
-      <c r="C23" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="24" spans="2:3">
-      <c r="B24" t="s">
-        <v>43</v>
-      </c>
-      <c r="C24" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="25" spans="2:3">
-      <c r="B25" t="s">
-        <v>44</v>
-      </c>
-      <c r="C25" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
     </row>
   </sheetData>

--- a/設計書/内部設計書/画面一覧.xlsx
+++ b/設計書/内部設計書/画面一覧.xlsx
@@ -1,32 +1,43 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29426"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\青木智之\Desktop\aoki\files\Grobe\resat_sql\設計書\内部設計書\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{286366A9-CDDE-42BF-8099-3095382059CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{961FDEA5-B5F6-4BC8-94B1-13B3C0924CCE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="管理画面" sheetId="1" r:id="rId1"/>
     <sheet name="予約者画面" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="51">
   <si>
     <t>画面名</t>
     <rPh sb="0" eb="2">
@@ -679,9 +690,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:E25"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3:F25"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
   <cols>
@@ -779,9 +788,6 @@
       <c r="C12" t="s">
         <v>21</v>
       </c>
-      <c r="E12" t="s">
-        <v>48</v>
-      </c>
     </row>
     <row r="13" spans="2:5">
       <c r="B13" t="s">
@@ -874,9 +880,6 @@
       <c r="C22" t="s">
         <v>44</v>
       </c>
-      <c r="E22" t="s">
-        <v>48</v>
-      </c>
     </row>
     <row r="23" spans="2:5">
       <c r="B23" t="s">
@@ -884,9 +887,6 @@
       </c>
       <c r="C23" t="s">
         <v>45</v>
-      </c>
-      <c r="E23" t="s">
-        <v>48</v>
       </c>
     </row>
     <row r="24" spans="2:5">
@@ -918,7 +918,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B79F3A80-02B6-46E1-A51A-F8D857E05A44}">
   <dimension ref="B2:D3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
   <cols>
